--- a/medicine/Enfance/Christopher_Pike/Christopher_Pike.xlsx
+++ b/medicine/Enfance/Christopher_Pike/Christopher_Pike.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christopher Pike, de son vrai nom Kevin Christopher McFadden, né le 12 novembre 1955 à New York, est un écrivain américain de littérature fantastique pour la jeunesse. Surnommé le « Stephen King des adolescents », Christopher Pike est une personne mystérieuse, relativement discrète sur sa vie privée, ce qui explique que l'on connaît peu de choses de lui. 
 Netflix adapte la série The Midnight Club en 2022, d'après son roman publié en 1994. 
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kevin McFadden a abandonné ses études universitaires pour se mettre à créer des programmes informatiques avant de se tourner vers l'écriture. Il a écrit beaucoup de livres pour adolescents.     
 Il vit aujourd'hui à Santa Barbara, en Californie.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Collection La Vampire : 
 La Promesse
